--- a/data/milk-burundi/milk-burundi-eco.xlsx
+++ b/data/milk-burundi/milk-burundi-eco.xlsx
@@ -8,17 +8,17 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Value Chain" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Stages description" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Actor types" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Farm gate price In final price" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Flow by actor type" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Indicator by actor type" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Imported And exported goods" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Direct value added receivers" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Employment" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Account by actor type" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Feuil12" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Value Chain" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Stages description" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Actor types" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Farm gate price In final price" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Flow by actor type" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Indicator by actor type" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Imported And exported goods" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Direct value added receivers" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Employment" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Account by actor type" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Feuil12" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">MBIF</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard currency code</t>
+    <t xml:space="preserve">Currency (ISO)</t>
   </si>
   <si>
     <t xml:space="preserve">BIF</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">should be one of ISO 4217 codes (https://en.wikipedia.org/wiki/ISO_4217#List_of_ISO_4217_currency_codes)</t>
   </si>
   <si>
-    <t xml:space="preserve">change rate from study's to standard currency</t>
+    <t xml:space="preserve">Conversion rate Currency unit AFA to Currency (ISO)</t>
   </si>
   <si>
     <t xml:space="preserve">study's currency divided by standard currency</t>
@@ -498,24 +498,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -530,262 +530,368 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>1000000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>143000</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -823,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -833,2477 +939,2477 @@
       <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>2750.84413101868</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>4439.83919241145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>13654.4841178922</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>2983.31386141011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>120.946766520263</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>865.896116481989</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>13.6872472670178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>41.0541755671076</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>17.953433093075</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>2105.43113264954</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>9457.71348197013</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>14369.654798043</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>17025.5780433751</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>14102.9557483952</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>4758.96534664921</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>1708.75554927543</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>38588.1539915245</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>11924.3229524614</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="3" t="n">
         <v>13715.7333486924</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>1330.79847025831</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>24677.4267620632</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="3" t="n">
         <v>58.4479914299166</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="3" t="n">
         <v>149.113248908792</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="3" t="n">
         <v>112.208998469536</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="C61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="3" t="n">
         <v>7136.6790744488</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="3" t="n">
         <v>6223.0362003648</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="3" t="n">
         <v>17444.1461494702</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="3" t="n">
         <v>10941.9222699632</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="C70" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="3" t="n">
         <v>81.752117035302</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="3" t="n">
         <v>76.2396890811469</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="3" t="n">
         <v>734.464823495301</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="3" t="n">
         <v>5667.63292753216</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="3" t="n">
         <v>1173.86239343195</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="3" t="n">
         <v>724.285703542013</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="3" t="n">
         <v>177.290225027688</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="3" t="n">
         <v>9232.43687834594</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="C79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="3" t="n">
         <v>13645.028477021</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="3" t="n">
         <v>21453.0795799329</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="3" t="n">
         <v>46800.4747732908</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="3" t="n">
         <v>34055.7864722794</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="3" t="n">
         <v>15153.1829911701</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="3" t="n">
         <v>7272.48900066694</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="3" t="n">
         <v>3098.43191764212</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="3" t="n">
         <v>44255.7869190567</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="3" t="n">
         <v>14213.137423961</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="3" t="n">
         <v>14958.5237710325</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="3" t="n">
         <v>1750.46012531815</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="E93" s="3" t="n">
         <v>36290.0825107558</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="3" t="n">
         <v>26.4823468169197</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="3" t="n">
         <v>421.571727842093</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="3" t="n">
         <v>2615.48118178577</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="3" t="n">
         <v>224.312439614243</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="3" t="n">
         <v>129.884424696022</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="C115" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="C117" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="3" t="n">
         <v>108.237020580018</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="C119" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="3" t="n">
         <v>60.6820051322966</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C120" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="E120" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="C121" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="C122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="3" t="n">
         <v>0.923016012405848</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C123" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="3" t="n">
         <v>3.31362839002792</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C124" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="C125" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="3" t="n">
         <v>101.407131923486</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="C126" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C127" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="C128" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="C129" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="C130" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="E130" s="3" t="n">
         <v>1438.37991535664</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="C131" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="3" t="n">
         <v>1411.65993688628</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C132" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="3" t="n">
         <v>3388.1053423651</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="C133" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="3" t="n">
         <v>2915.03160626799</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="C134" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="3" t="n">
         <v>869.175763335379</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C135" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="E135" s="3" t="n">
         <v>342.89488305551</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="C136" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="3" t="n">
         <v>259.859088066428</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C137" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="C138" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="E138" s="3" t="n">
         <v>17.9475333880074</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="C139" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="3" t="n">
         <v>294.336590469202</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="C140" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="3" t="n">
         <v>112.208998469536</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="C141" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="3" t="n">
         <v>2278.81173842315</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="C142" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="C143" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="E143" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="C144" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="C145" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3319,7 +3425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3342,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3354,44 +3460,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="19.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3407,7 +3513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3419,193 +3525,193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3621,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3631,25 +3737,25 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3665,7 +3771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3675,1238 +3781,1238 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>26710.8996783256</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>8013269903.4977</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>849.119975566864</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>551927984.118462</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>8081.06047525406</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>4848636285.15244</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>958.919979929924</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>647270986.452699</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>675000</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>505.079987347126</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>2550653936.10299</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>5050000</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>36494.7001552582</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>10948410046.5775</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>1386.00002229214</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>900900014.489891</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>15315.3002643585</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>9189180158.6151</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>1815.00007212162</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>1225125048.68209</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>675000</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>881.099998950958</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>4449554994.70234</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3" t="n">
         <v>5050000</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>29150.0010490418</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>291500010.490418</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>83112.2548241491</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>24933676447.2447</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>7845.31193475072</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="3" t="n">
         <v>5099452757.58797</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>40917.2266906692</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <v>24550336014.4015</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>2500.69318833494</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>1687967902.12608</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>675000</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>1117.95699454108</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <v>5645682822.43245</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3" t="n">
         <v>5050000</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>26968.2609630145</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <v>269682609.630145</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>30880.9840040867</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>13124418201.7368</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>425000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>743.270184041487</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>483125619.626967</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="3" t="n">
         <v>28485.1494654694</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>24212377045.649</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3" t="n">
         <v>850000</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="3" t="n">
         <v>242.474485849257</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="3" t="n">
         <v>1224496153.53875</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <v>5050000</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="3" t="n">
         <v>56822.7025671684</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="3" t="n">
         <v>7386951333.73189</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3" t="n">
         <v>130000</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="3" t="n">
         <v>10823.7021166512</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="3" t="n">
         <v>7035406375.82328</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="3" t="n">
         <v>3117.22620959555</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="3" t="n">
         <v>2337919657.19666</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="3" t="n">
         <v>1450.37608363126</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="3" t="n">
         <v>1087782062.72345</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="3" t="n">
         <v>5736.56212182514</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="3" t="n">
         <v>4302421591.36885</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="3" t="n">
         <v>519.537701599258</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="3" t="n">
         <v>389653276.199443</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="3" t="n">
         <v>3117.22620959555</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="3" t="n">
         <v>7272488746.98642</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3" t="n">
         <v>2333000</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.385594403228</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="3" t="n">
         <v>3855944.03228</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="3" t="n">
         <v>10000000</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="3" t="n">
         <v>20.565034021637</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="3" t="n">
         <v>246780408.259644</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="3" t="n">
         <v>12000000</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="3" t="n">
         <v>1232.27849785137</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="3" t="n">
         <v>2847795608.53452</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="3" t="n">
         <v>2311000</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="3" t="n">
         <v>9647.03841402576</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="3" t="n">
         <v>7235278810.51932</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="3" t="n">
         <v>43411.6736118246</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="3" t="n">
         <v>29302879687.9816</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="3" t="n">
         <v>675000</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="3" t="n">
         <v>9647.03841402576</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="3" t="n">
         <v>7717630731.22061</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="3" t="n">
         <v>800000</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="3" t="n">
         <v>13614.6895826822</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="3" t="n">
         <v>12933955103.5481</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="3" t="n">
         <v>950000</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="3" t="n">
         <v>1346.50776092461</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="3" t="n">
         <v>1279182372.87838</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="3" t="n">
         <v>950000</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="3" t="n">
         <v>6.483185565879</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="3" t="n">
         <v>64831855.65879</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="3" t="n">
         <v>10000000</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="3" t="n">
         <v>181.529192825646</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="3" t="n">
         <v>2178350313.90775</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="3" t="n">
         <v>12000000</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="3" t="n">
         <v>10596.1183176031</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="3" t="n">
         <v>12715341981.1237</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="3" t="n">
         <v>1200000</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="3" t="n">
         <v>1346.50776092461</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="3" t="n">
         <v>1750460089.20199</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3" t="n">
         <v>1300000</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="3" t="n">
         <v>27915.4470194711</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="3" t="n">
         <v>36290081125.3124</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3" t="n">
         <v>1300000</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4922,7 +5028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4934,305 +5040,305 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>59032.2576105036</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>11299.4207740072</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>-26.4823468169197</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>7136.67907444879</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>6534.83174938913</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>36666.6666666667</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>11652.9636018205</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>-421.571727842093</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>6223.03620036482</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>15651.6151074102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>268800</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>31871.2544279418</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>-2615.48118178577</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>17444.1461494703</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>31971.8098056063</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>638.297872340426</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>16615.9552980271</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>-224.312439614243</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>10941.9222699632</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>23338.1766419304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>54.12</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1050.22724277494</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>-21.647404116004</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>81.7521170353033</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>15201.3152988309</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.865833333333333</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>2513.52365401773</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>1170.04497396917</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>76.239689081148</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>7196.24931158579</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>4.32291666666667</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1317.4687443191</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>309.457585490355</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>734.464823495297</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>2363.96709414682</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>5359.41666666667</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>5667.6329275322</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>5667.6329275322</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>38588.1539915245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>32.1566666666667</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>1192.73294283236</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>0.923016012405848</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>1173.86239343195</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>13039.2750305291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>64.8333333333333</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1212.10334687714</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>3.31362839002792</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>724.285703542014</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>14234.2380674905</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>249.444440039097</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>419.66165505984</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>177.290225027693</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>1573.16990029046</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>158.25</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>11612.6557486926</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>101.407131923486</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>9232.43687834596</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>27057.6456324098</v>
       </c>
     </row>
@@ -5248,7 +5354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5261,13 +5367,13 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5283,7 +5389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5293,193 +5399,193 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>7136.67907444879</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>6223.03620036482</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>17444.1461494703</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>10941.9222699632</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>81.7521170353033</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>76.239689081148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>734.464823495297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>5667.6329275322</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>1173.86239343195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>724.285703542014</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>177.290225027693</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>9232.43687834596</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>261.322247378328</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>24888.0190416619</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>13328.4113960832</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>58.4479914299166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>-1724.34876438959</v>
       </c>
     </row>
@@ -5495,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5505,553 +5611,553 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>767135.966288091</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>221289.221044642</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>752885.310891548</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>217178.45506487</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>347670.319149328</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>36215.6573452961</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="G4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>19315.0172508246</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="2" t="n">
+      <c r="I4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="3" t="n">
         <v>1241.67968041015</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="2" t="n">
+      <c r="K4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>1448.62629381185</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>7480.60000943869</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="C6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>77683.1507287011</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>474752.445504823</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="G7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>11965.0222586716</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>607298.251305831</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="G9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>117734.640866035</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>90565.1061092797</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>39290.0395350325</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="3" t="n">
         <v>7619.8864036676</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="2" t="n">
+      <c r="I11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>1959.3993609431</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" s="2" t="n">
+      <c r="K11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>1714.47448340464</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>21654.9243282192</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>5774.64648752512</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="2" t="n">
+      <c r="I12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="3" t="n">
         <v>3341.04532948945</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" s="2" t="n">
+      <c r="K12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>433.098486564384</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1806989.5428543</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>521246.983515662</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>114</v>
       </c>
     </row>

--- a/data/milk-burundi/milk-burundi-eco.xlsx
+++ b/data/milk-burundi/milk-burundi-eco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Value Chain" sheetId="1" state="visible" r:id="rId3"/>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">Actor type Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Number Of actors In the value chain</t>
+    <t xml:space="preserve">Number of actors in the value chain</t>
   </si>
   <si>
     <t xml:space="preserve">Direct added value (local currency)</t>
@@ -493,7 +493,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -516,6 +516,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -643,7 +647,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -5034,8 +5038,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5050,7 +5054,7 @@
       <c r="B1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">

--- a/data/milk-burundi/milk-burundi-eco.xlsx
+++ b/data/milk-burundi/milk-burundi-eco.xlsx
@@ -5,20 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Value Chain" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Stages description" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Actor types" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Farm gate price In final price" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Flow by actor type" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Indicator by actor type" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Imported And exported goods" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Direct value added receivers" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Employment" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Account by actor type" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Feuil12" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Value Chain" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Stages description" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Actor types" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Farm gate price In final price" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Flow by actor type" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Indicator by actor type" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Imported And exported goods" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Direct value added receivers" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Employment" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Account by actor type" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Feuil12" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">MBIF</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard currency code</t>
+    <t xml:space="preserve">Currency (ISO)</t>
   </si>
   <si>
     <t xml:space="preserve">BIF</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">should be one of ISO 4217 codes (https://en.wikipedia.org/wiki/ISO_4217#List_of_ISO_4217_currency_codes)</t>
   </si>
   <si>
-    <t xml:space="preserve">change rate from study's to standard currency</t>
+    <t xml:space="preserve">Conversion rate Currency unit AFA to Currency (ISO)</t>
   </si>
   <si>
     <t xml:space="preserve">study's currency divided by standard currency</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">Actor type Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Number Of actors In the value chain</t>
+    <t xml:space="preserve">Number of actors in the value chain</t>
   </si>
   <si>
     <t xml:space="preserve">Direct added value (local currency)</t>
@@ -493,28 +493,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,262 +534,368 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>1000000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>143000</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -823,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -833,2477 +943,2477 @@
       <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>2750.84413101868</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>4439.83919241145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>13654.4841178922</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>2983.31386141011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>120.946766520263</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>865.896116481989</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>13.6872472670178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>41.0541755671076</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>17.953433093075</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>2105.43113264954</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>9457.71348197013</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>14369.654798043</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>17025.5780433751</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>14102.9557483952</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>4758.96534664921</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>1708.75554927543</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>38588.1539915245</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>11924.3229524614</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="3" t="n">
         <v>13715.7333486924</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>1330.79847025831</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>24677.4267620632</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="3" t="n">
         <v>58.4479914299166</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="3" t="n">
         <v>149.113248908792</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="3" t="n">
         <v>112.208998469536</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="C61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="3" t="n">
         <v>7136.6790744488</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="3" t="n">
         <v>6223.0362003648</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="3" t="n">
         <v>17444.1461494702</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="3" t="n">
         <v>10941.9222699632</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="C70" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="3" t="n">
         <v>81.752117035302</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="3" t="n">
         <v>76.2396890811469</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="3" t="n">
         <v>734.464823495301</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="3" t="n">
         <v>5667.63292753216</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="3" t="n">
         <v>1173.86239343195</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="3" t="n">
         <v>724.285703542013</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="3" t="n">
         <v>177.290225027688</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="3" t="n">
         <v>9232.43687834594</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="C79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="3" t="n">
         <v>13645.028477021</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="3" t="n">
         <v>21453.0795799329</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="3" t="n">
         <v>46800.4747732908</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="3" t="n">
         <v>34055.7864722794</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="3" t="n">
         <v>15153.1829911701</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="3" t="n">
         <v>7272.48900066694</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="3" t="n">
         <v>3098.43191764212</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="3" t="n">
         <v>44255.7869190567</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="3" t="n">
         <v>14213.137423961</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="3" t="n">
         <v>14958.5237710325</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="3" t="n">
         <v>1750.46012531815</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="E93" s="3" t="n">
         <v>36290.0825107558</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="3" t="n">
         <v>26.4823468169197</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="3" t="n">
         <v>421.571727842093</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="3" t="n">
         <v>2615.48118178577</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="3" t="n">
         <v>224.312439614243</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="3" t="n">
         <v>129.884424696022</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="C115" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="C117" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="3" t="n">
         <v>108.237020580018</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="C119" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="3" t="n">
         <v>60.6820051322966</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C120" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="E120" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="C121" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="C122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="3" t="n">
         <v>0.923016012405848</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C123" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="3" t="n">
         <v>3.31362839002792</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C124" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="C125" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="3" t="n">
         <v>101.407131923486</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="C126" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C127" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="C128" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="C129" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="C130" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="E130" s="3" t="n">
         <v>1438.37991535664</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="C131" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="3" t="n">
         <v>1411.65993688628</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C132" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="3" t="n">
         <v>3388.1053423651</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="C133" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="3" t="n">
         <v>2915.03160626799</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="C134" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="3" t="n">
         <v>869.175763335379</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C135" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="E135" s="3" t="n">
         <v>342.89488305551</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="C136" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="3" t="n">
         <v>259.859088066428</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C137" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="C138" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="E138" s="3" t="n">
         <v>17.9475333880074</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="C139" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="3" t="n">
         <v>294.336590469202</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="C140" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="3" t="n">
         <v>112.208998469536</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="C141" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="3" t="n">
         <v>2278.81173842315</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="C142" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="C143" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="E143" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="C144" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="C145" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3319,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3342,7 +3452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3354,44 +3464,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="19.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3407,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3419,193 +3529,193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3621,7 +3731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3631,25 +3741,25 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3665,7 +3775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3675,1238 +3785,1238 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>26710.8996783256</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>8013269903.4977</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>849.119975566864</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>551927984.118462</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>8081.06047525406</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>4848636285.15244</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>958.919979929924</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>647270986.452699</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>675000</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>505.079987347126</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>2550653936.10299</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>5050000</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>36494.7001552582</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>10948410046.5775</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>1386.00002229214</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>900900014.489891</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>15315.3002643585</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>9189180158.6151</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>1815.00007212162</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>1225125048.68209</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>675000</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>881.099998950958</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>4449554994.70234</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3" t="n">
         <v>5050000</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>29150.0010490418</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>291500010.490418</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>83112.2548241491</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>24933676447.2447</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>7845.31193475072</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="3" t="n">
         <v>5099452757.58797</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>40917.2266906692</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <v>24550336014.4015</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3" t="n">
         <v>600000</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>2500.69318833494</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>1687967902.12608</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>675000</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>1117.95699454108</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <v>5645682822.43245</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3" t="n">
         <v>5050000</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>26968.2609630145</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <v>269682609.630145</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>30880.9840040867</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>13124418201.7368</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>425000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>743.270184041487</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>483125619.626967</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="3" t="n">
         <v>28485.1494654694</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>24212377045.649</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3" t="n">
         <v>850000</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="3" t="n">
         <v>242.474485849257</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="3" t="n">
         <v>1224496153.53875</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <v>5050000</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="3" t="n">
         <v>56822.7025671684</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="3" t="n">
         <v>7386951333.73189</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3" t="n">
         <v>130000</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="3" t="n">
         <v>10823.7021166512</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="3" t="n">
         <v>7035406375.82328</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3" t="n">
         <v>650000</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="3" t="n">
         <v>3117.22620959555</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="3" t="n">
         <v>2337919657.19666</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="3" t="n">
         <v>1450.37608363126</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="3" t="n">
         <v>1087782062.72345</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="3" t="n">
         <v>5736.56212182514</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="3" t="n">
         <v>4302421591.36885</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="3" t="n">
         <v>519.537701599258</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="3" t="n">
         <v>389653276.199443</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="3" t="n">
         <v>3117.22620959555</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="3" t="n">
         <v>7272488746.98642</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3" t="n">
         <v>2333000</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.385594403228</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="3" t="n">
         <v>3855944.03228</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="3" t="n">
         <v>10000000</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="3" t="n">
         <v>20.565034021637</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="3" t="n">
         <v>246780408.259644</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="3" t="n">
         <v>12000000</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="3" t="n">
         <v>1232.27849785137</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="3" t="n">
         <v>2847795608.53452</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="3" t="n">
         <v>2311000</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="3" t="n">
         <v>9647.03841402576</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="3" t="n">
         <v>7235278810.51932</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="3" t="n">
         <v>750000</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="3" t="n">
         <v>43411.6736118246</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="3" t="n">
         <v>29302879687.9816</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="3" t="n">
         <v>675000</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="3" t="n">
         <v>9647.03841402576</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="3" t="n">
         <v>7717630731.22061</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="3" t="n">
         <v>800000</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="3" t="n">
         <v>13614.6895826822</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="3" t="n">
         <v>12933955103.5481</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="3" t="n">
         <v>950000</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="3" t="n">
         <v>1346.50776092461</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="3" t="n">
         <v>1279182372.87838</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="3" t="n">
         <v>950000</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="3" t="n">
         <v>6.483185565879</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="3" t="n">
         <v>64831855.65879</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="3" t="n">
         <v>10000000</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="3" t="n">
         <v>181.529192825646</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="3" t="n">
         <v>2178350313.90775</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="3" t="n">
         <v>12000000</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="3" t="n">
         <v>10596.1183176031</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="3" t="n">
         <v>12715341981.1237</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="3" t="n">
         <v>1200000</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="3" t="n">
         <v>1346.50776092461</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="3" t="n">
         <v>1750460089.20199</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3" t="n">
         <v>1300000</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="3" t="n">
         <v>27915.4470194711</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="3" t="n">
         <v>36290081125.3124</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3" t="n">
         <v>1300000</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4922,317 +5032,317 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>59032.2576105036</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>11299.4207740072</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>-26.4823468169197</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>7136.67907444879</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>6534.83174938913</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>36666.6666666667</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>11652.9636018205</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>-421.571727842093</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>6223.03620036482</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>15651.6151074102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>268800</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>31871.2544279418</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>-2615.48118178577</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>17444.1461494703</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>31971.8098056063</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>638.297872340426</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>16615.9552980271</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>-224.312439614243</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>10941.9222699632</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>23338.1766419304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>54.12</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1050.22724277494</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>-21.647404116004</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>81.7521170353033</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>15201.3152988309</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.865833333333333</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>2513.52365401773</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>1170.04497396917</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>76.239689081148</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>7196.24931158579</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>4.32291666666667</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1317.4687443191</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>309.457585490355</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>734.464823495297</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>2363.96709414682</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>5359.41666666667</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>5667.6329275322</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>5667.6329275322</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>38588.1539915245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>32.1566666666667</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>1192.73294283236</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>0.923016012405848</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>1173.86239343195</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>13039.2750305291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>64.8333333333333</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1212.10334687714</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>3.31362839002792</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>724.285703542014</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>14234.2380674905</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>249.444440039097</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>419.66165505984</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>177.290225027693</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>1573.16990029046</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>158.25</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>11612.6557486926</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>101.407131923486</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>9232.43687834596</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>27057.6456324098</v>
       </c>
     </row>
@@ -5248,7 +5358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5261,13 +5371,13 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5283,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5293,193 +5403,193 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>7136.67907444879</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>6223.03620036482</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>17444.1461494703</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>10941.9222699632</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>81.7521170353033</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>76.239689081148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>734.464823495297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>5667.6329275322</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>1173.86239343195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>724.285703542014</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>177.290225027693</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>9232.43687834596</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>261.322247378328</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>24888.0190416619</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>13328.4113960832</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>58.4479914299166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>-1724.34876438959</v>
       </c>
     </row>
@@ -5495,7 +5605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5505,553 +5615,553 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>767135.966288091</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>221289.221044642</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>752885.310891548</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>217178.45506487</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>347670.319149328</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>36215.6573452961</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="G4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>19315.0172508246</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="2" t="n">
+      <c r="I4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="3" t="n">
         <v>1241.67968041015</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="2" t="n">
+      <c r="K4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>1448.62629381185</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>7480.60000943869</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="C6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>77683.1507287011</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>474752.445504823</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="G7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>11965.0222586716</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>607298.251305831</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="G9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>117734.640866035</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>90565.1061092797</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>39290.0395350325</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="3" t="n">
         <v>7619.8864036676</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="2" t="n">
+      <c r="I11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>1959.3993609431</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" s="2" t="n">
+      <c r="K11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>1714.47448340464</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>21654.9243282192</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>5774.64648752512</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="2" t="n">
+      <c r="I12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="3" t="n">
         <v>3341.04532948945</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" s="2" t="n">
+      <c r="K12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>433.098486564384</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1806989.5428543</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>521246.983515662</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>114</v>
       </c>
     </row>
